--- a/src/main/resources/templates/excel/fillCreditLog.xlsx
+++ b/src/main/resources/templates/excel/fillCreditLog.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lorenzo\Desktop\工作文档\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\docs\works\idea\xg-cctv-manager\src\main\resources\templates\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3358672-9F23-4AC1-B672-9E0C4BCFBD56}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F45AEA6-49E9-49C3-AC6F-87966DAD3149}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5620" yWindow="980" windowWidth="20510" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="430" yWindow="640" windowWidth="20510" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>序号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -107,10 +107,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>${e.date}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>${e.tableCode}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -128,6 +124,14 @@
   </si>
   <si>
     <t>${e.monitor}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>${e.time}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>${dFormat.format(e.date)}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -498,7 +502,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -537,29 +541,32 @@
         <v>9</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="G2" s="2"/>
       <c r="H2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/src/main/resources/templates/excel/fillCreditLog.xlsx
+++ b/src/main/resources/templates/excel/fillCreditLog.xlsx
@@ -1,23 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27610"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\docs\works\idea\xg-cctv-manager\src\main\resources\templates\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/work/casinos_project/CCTV/src/main/resources/templates/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F45AEA6-49E9-49C3-AC6F-87966DAD3149}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="430" yWindow="640" windowWidth="20510" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="440" yWindow="640" windowWidth="20520" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,12 +30,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Lorenzo</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{D293848F-D89A-439A-93AB-428F80070A22}">
+    <comment ref="A1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -45,7 +50,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{927B876C-D4DD-4F11-AA0E-D448F8B6EACC}">
+    <comment ref="A2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -65,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>序号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -91,10 +96,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>序列号</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>通知人</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -103,10 +104,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>${e.no}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>${e.tableCode}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -132,13 +129,17 @@
   </si>
   <si>
     <t>${dFormat.format(e.date)}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>${e.id}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -194,16 +195,16 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -498,16 +499,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="17.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -532,35 +533,31 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>
